--- a/Document/PinAssignment.xlsx
+++ b/Document/PinAssignment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_HKF\_dev\Repository\Nucleo\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_dev\Repository\Nucleo\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CA1610-BCAF-411A-AC89-09EAA3C1FB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027A0363-D52E-4435-83CB-D2ED743F6323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9C744193-5D54-49D6-9404-E08C814F1061}"/>
   </bookViews>
@@ -2294,13 +2294,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2308,7 +2308,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2316,7 +2316,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="游ゴシック Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -2325,7 +2325,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2334,7 +2334,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2343,7 +2343,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2351,7 +2351,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2359,7 +2359,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2367,7 +2367,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2375,7 +2375,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2384,7 +2384,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2393,7 +2393,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2401,7 +2401,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2410,7 +2410,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2418,7 +2418,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2427,7 +2427,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2436,7 +2436,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2444,14 +2444,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2460,7 +2460,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2469,7 +2469,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -3017,7 +3017,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3034,66 +3034,52 @@
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="43" xr:uid="{D484D23F-14DC-42BC-9E13-1BACC9E61508}"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -3115,27 +3101,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3150,7 +3115,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3449,22 +3414,21 @@
   <dimension ref="B2:H5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8">
       <c r="B2" s="5" t="s">
         <v>511</v>
       </c>
@@ -3487,7 +3451,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
         <v>515</v>
       </c>
@@ -3514,7 +3478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
         <v>516</v>
       </c>
@@ -3539,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
         <v>512</v>
       </c>
@@ -3587,35 +3551,35 @@
       <selection pane="bottomRight" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="34" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19">
       <c r="A1" s="6" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19">
       <c r="B2" s="17" t="s">
         <v>168</v>
       </c>
@@ -3653,7 +3617,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19">
       <c r="B3" s="19">
         <v>1</v>
       </c>
@@ -3697,7 +3661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19">
       <c r="B4" s="19">
         <v>2</v>
       </c>
@@ -3737,7 +3701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19">
       <c r="B5" s="19">
         <v>3</v>
       </c>
@@ -3783,7 +3747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19">
       <c r="B6" s="19">
         <v>4</v>
       </c>
@@ -3831,7 +3795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19">
       <c r="B7" s="19">
         <v>5</v>
       </c>
@@ -3879,7 +3843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19">
       <c r="B8" s="19">
         <v>6</v>
       </c>
@@ -3915,7 +3879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="30">
       <c r="B9" s="19">
         <v>7</v>
       </c>
@@ -3949,7 +3913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="30">
       <c r="B10" s="19">
         <v>8</v>
       </c>
@@ -3985,7 +3949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" ht="30">
       <c r="B11" s="19">
         <v>9</v>
       </c>
@@ -4021,7 +3985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19">
       <c r="B12" s="19">
         <v>10</v>
       </c>
@@ -4059,7 +4023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19">
       <c r="B13" s="19">
         <v>11</v>
       </c>
@@ -4097,7 +4061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19">
       <c r="B14" s="19">
         <v>12</v>
       </c>
@@ -4135,7 +4099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19">
       <c r="B15" s="19">
         <v>13</v>
       </c>
@@ -4171,7 +4135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19">
       <c r="B16" s="19">
         <v>14</v>
       </c>
@@ -4207,7 +4171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19">
       <c r="B17" s="19">
         <v>15</v>
       </c>
@@ -4243,7 +4207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:19">
       <c r="B18" s="19">
         <v>16</v>
       </c>
@@ -4279,7 +4243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19">
       <c r="B19" s="19">
         <v>17</v>
       </c>
@@ -4315,7 +4279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:19">
       <c r="B20" s="19">
         <v>18</v>
       </c>
@@ -4359,7 +4323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19">
       <c r="B21" s="19">
         <v>19</v>
       </c>
@@ -4403,7 +4367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:19">
       <c r="B22" s="19">
         <v>20</v>
       </c>
@@ -4445,7 +4409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:19">
       <c r="B23" s="19">
         <v>21</v>
       </c>
@@ -4487,7 +4451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:19">
       <c r="B24" s="19">
         <v>22</v>
       </c>
@@ -4527,7 +4491,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:19">
       <c r="B25" s="19">
         <v>23</v>
       </c>
@@ -4561,7 +4525,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="30" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:19" ht="30">
       <c r="B26" s="19">
         <v>24</v>
       </c>
@@ -4595,7 +4559,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:19">
       <c r="B27" s="19">
         <v>25</v>
       </c>
@@ -4629,7 +4593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:19">
       <c r="B28" s="19">
         <v>26</v>
       </c>
@@ -4667,7 +4631,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:19">
       <c r="B29" s="19">
         <v>27</v>
       </c>
@@ -4703,7 +4667,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:19">
       <c r="B30" s="19">
         <v>28</v>
       </c>
@@ -4737,7 +4701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:19">
       <c r="B31" s="19">
         <v>29</v>
       </c>
@@ -4779,7 +4743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:19">
       <c r="B32" s="19">
         <v>30</v>
       </c>
@@ -4815,7 +4779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:19">
       <c r="B33" s="19">
         <v>31</v>
       </c>
@@ -4851,7 +4815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:19">
       <c r="B34" s="19">
         <v>32</v>
       </c>
@@ -4887,7 +4851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:19">
       <c r="B35" s="19">
         <v>33</v>
       </c>
@@ -4923,7 +4887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:19">
       <c r="B36" s="19">
         <v>34</v>
       </c>
@@ -4969,7 +4933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:19">
       <c r="B37" s="19">
         <v>35</v>
       </c>
@@ -5011,7 +4975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:19">
       <c r="B38" s="19">
         <v>36</v>
       </c>
@@ -5055,7 +5019,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:19">
       <c r="B39" s="19">
         <v>37</v>
       </c>
@@ -5103,7 +5067,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:19">
       <c r="B40" s="19">
         <v>38</v>
       </c>
@@ -5139,7 +5103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:19">
       <c r="B41" s="19">
         <v>39</v>
       </c>
@@ -5175,7 +5139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:19">
       <c r="B42" s="19">
         <v>40</v>
       </c>
@@ -5221,7 +5185,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:19">
       <c r="B43" s="19">
         <v>41</v>
       </c>
@@ -5263,7 +5227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:19">
       <c r="B44" s="19">
         <v>42</v>
       </c>
@@ -5311,7 +5275,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:19">
       <c r="B45" s="19">
         <v>43</v>
       </c>
@@ -5357,7 +5321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:19">
       <c r="B46" s="19">
         <v>44</v>
       </c>
@@ -5393,7 +5357,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:19">
       <c r="B47" s="19">
         <v>45</v>
       </c>
@@ -5429,7 +5393,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:19">
       <c r="B48" s="19">
         <v>46</v>
       </c>
@@ -5475,7 +5439,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:19">
       <c r="B49" s="19">
         <v>47</v>
       </c>
@@ -5521,7 +5485,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:19">
       <c r="B50" s="19">
         <v>48</v>
       </c>
@@ -5555,7 +5519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:19">
       <c r="B51" s="19">
         <v>49</v>
       </c>
@@ -5595,7 +5559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:19">
       <c r="B52" s="19">
         <v>50</v>
       </c>
@@ -5631,7 +5595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:19">
       <c r="B53" s="19">
         <v>51</v>
       </c>
@@ -5663,7 +5627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:19">
       <c r="B54" s="19">
         <v>52</v>
       </c>
@@ -5695,7 +5659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:19">
       <c r="B55" s="19">
         <v>53</v>
       </c>
@@ -5731,7 +5695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:19">
       <c r="B56" s="19">
         <v>54</v>
       </c>
@@ -5767,7 +5731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:19">
       <c r="B57" s="19">
         <v>55</v>
       </c>
@@ -5803,7 +5767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:19">
       <c r="B58" s="19">
         <v>56</v>
       </c>
@@ -5839,7 +5803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:19">
       <c r="B59" s="19">
         <v>57</v>
       </c>
@@ -5875,7 +5839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:19">
       <c r="B60" s="19">
         <v>58</v>
       </c>
@@ -5915,7 +5879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:19">
       <c r="B61" s="19">
         <v>59</v>
       </c>
@@ -5955,7 +5919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:19">
       <c r="B62" s="19">
         <v>60</v>
       </c>
@@ -5993,7 +5957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:19">
       <c r="B63" s="19">
         <v>61</v>
       </c>
@@ -6025,7 +5989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:19">
       <c r="B64" s="19">
         <v>62</v>
       </c>
@@ -6057,7 +6021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:19">
       <c r="B65" s="19">
         <v>63</v>
       </c>
@@ -6095,7 +6059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:19">
       <c r="B66" s="19">
         <v>64</v>
       </c>
@@ -6137,7 +6101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:19">
       <c r="B67" s="19">
         <v>65</v>
       </c>
@@ -6179,7 +6143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:19">
       <c r="B68" s="19">
         <v>66</v>
       </c>
@@ -6221,7 +6185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:19">
       <c r="B69" s="19">
         <v>67</v>
       </c>
@@ -6263,7 +6227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:19">
       <c r="B70" s="19">
         <v>68</v>
       </c>
@@ -6303,7 +6267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:19">
       <c r="B71" s="19">
         <v>69</v>
       </c>
@@ -6351,7 +6315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:19">
       <c r="B72" s="19">
         <v>70</v>
       </c>
@@ -6397,7 +6361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:19">
       <c r="B73" s="19">
         <v>71</v>
       </c>
@@ -6433,7 +6397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:19">
       <c r="B74" s="19">
         <v>72</v>
       </c>
@@ -6469,7 +6433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:19">
       <c r="B75" s="19">
         <v>73</v>
       </c>
@@ -6519,7 +6483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:19">
       <c r="B76" s="19">
         <v>74</v>
       </c>
@@ -6565,7 +6529,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:19">
       <c r="B77" s="19">
         <v>75</v>
       </c>
@@ -6603,7 +6567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:19">
       <c r="B78" s="19">
         <v>76</v>
       </c>
@@ -6647,7 +6611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:19">
       <c r="B79" s="19">
         <v>77</v>
       </c>
@@ -6685,7 +6649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:19">
       <c r="B80" s="19">
         <v>78</v>
       </c>
@@ -6723,7 +6687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:19">
       <c r="B81" s="19">
         <v>79</v>
       </c>
@@ -6763,7 +6727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:19">
       <c r="B82" s="19">
         <v>80</v>
       </c>
@@ -6801,7 +6765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:19">
       <c r="B83" s="19">
         <v>81</v>
       </c>
@@ -6841,7 +6805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:19">
       <c r="B84" s="19">
         <v>82</v>
       </c>
@@ -6879,7 +6843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:19">
       <c r="B85" s="19">
         <v>83</v>
       </c>
@@ -6911,7 +6875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:19">
       <c r="B86" s="19">
         <v>84</v>
       </c>
@@ -6943,7 +6907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:19">
       <c r="B87" s="19">
         <v>85</v>
       </c>
@@ -6981,7 +6945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:19">
       <c r="B88" s="19">
         <v>86</v>
       </c>
@@ -7019,7 +6983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:19">
       <c r="B89" s="19">
         <v>87</v>
       </c>
@@ -7055,7 +7019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:19">
       <c r="B90" s="19">
         <v>88</v>
       </c>
@@ -7091,7 +7055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:19">
       <c r="B91" s="19">
         <v>89</v>
       </c>
@@ -7127,7 +7091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:19">
       <c r="B92" s="19">
         <v>90</v>
       </c>
@@ -7163,7 +7127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:19">
       <c r="B93" s="19">
         <v>91</v>
       </c>
@@ -7203,7 +7167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:19">
       <c r="B94" s="19">
         <v>92</v>
       </c>
@@ -7245,7 +7209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:19">
       <c r="B95" s="19">
         <v>93</v>
       </c>
@@ -7287,7 +7251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:19">
       <c r="B96" s="19">
         <v>94</v>
       </c>
@@ -7319,7 +7283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:19">
       <c r="B97" s="19">
         <v>95</v>
       </c>
@@ -7351,7 +7315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:19">
       <c r="B98" s="19">
         <v>96</v>
       </c>
@@ -7399,7 +7363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:19">
       <c r="B99" s="19">
         <v>97</v>
       </c>
@@ -7447,7 +7411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:19">
       <c r="B100" s="19">
         <v>98</v>
       </c>
@@ -7491,7 +7455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:19">
       <c r="B101" s="19">
         <v>99</v>
       </c>
@@ -7539,7 +7503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:19">
       <c r="B102" s="19">
         <v>100</v>
       </c>
@@ -7585,7 +7549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:19">
       <c r="B103" s="19">
         <v>101</v>
       </c>
@@ -7627,7 +7591,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:19">
       <c r="B104" s="19">
         <v>102</v>
       </c>
@@ -7669,7 +7633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:19">
       <c r="B105" s="19">
         <v>103</v>
       </c>
@@ -7713,7 +7677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:19">
       <c r="B106" s="19">
         <v>104</v>
       </c>
@@ -7757,7 +7721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:19">
       <c r="B107" s="19">
         <v>105</v>
       </c>
@@ -7793,7 +7757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:19">
       <c r="B108" s="19">
         <v>106</v>
       </c>
@@ -7827,7 +7791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:19">
       <c r="B109" s="19">
         <v>107</v>
       </c>
@@ -7861,7 +7825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:19">
       <c r="B110" s="19">
         <v>108</v>
       </c>
@@ -7895,7 +7859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:19">
       <c r="B111" s="19">
         <v>109</v>
       </c>
@@ -7929,7 +7893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:19">
       <c r="B112" s="19">
         <v>110</v>
       </c>
@@ -7971,7 +7935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:19">
       <c r="B113" s="19">
         <v>111</v>
       </c>
@@ -8017,7 +7981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:19">
       <c r="B114" s="19">
         <v>112</v>
       </c>
@@ -8063,7 +8027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:19">
       <c r="B115" s="19">
         <v>113</v>
       </c>
@@ -8107,7 +8071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:19">
       <c r="B116" s="19">
         <v>114</v>
       </c>
@@ -8145,7 +8109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:19">
       <c r="B117" s="19">
         <v>115</v>
       </c>
@@ -8183,7 +8147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:19">
       <c r="B118" s="19">
         <v>116</v>
       </c>
@@ -8225,7 +8189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:19">
       <c r="B119" s="19">
         <v>117</v>
       </c>
@@ -8269,7 +8233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:19">
       <c r="B120" s="19">
         <v>118</v>
       </c>
@@ -8307,7 +8271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:19">
       <c r="B121" s="19">
         <v>119</v>
       </c>
@@ -8345,7 +8309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:19">
       <c r="B122" s="19">
         <v>120</v>
       </c>
@@ -8377,7 +8341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:19">
       <c r="B123" s="19">
         <v>121</v>
       </c>
@@ -8409,7 +8373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:19">
       <c r="B124" s="19">
         <v>122</v>
       </c>
@@ -8455,7 +8419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:19">
       <c r="B125" s="19">
         <v>123</v>
       </c>
@@ -8493,7 +8457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:19">
       <c r="B126" s="19">
         <v>124</v>
       </c>
@@ -8531,7 +8495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:19">
       <c r="B127" s="19">
         <v>125</v>
       </c>
@@ -8573,7 +8537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:19">
       <c r="B128" s="19">
         <v>126</v>
       </c>
@@ -8615,7 +8579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:19">
       <c r="B129" s="19">
         <v>127</v>
       </c>
@@ -8659,7 +8623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:19">
       <c r="B130" s="19">
         <v>128</v>
       </c>
@@ -8701,7 +8665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:19">
       <c r="B131" s="19">
         <v>129</v>
       </c>
@@ -8743,7 +8707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:19">
       <c r="B132" s="19">
         <v>130</v>
       </c>
@@ -8777,7 +8741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:19">
       <c r="B133" s="19">
         <v>131</v>
       </c>
@@ -8811,7 +8775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:19">
       <c r="B134" s="19">
         <v>132</v>
       </c>
@@ -8851,7 +8815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:19">
       <c r="B135" s="19">
         <v>133</v>
       </c>
@@ -8893,7 +8857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:19">
       <c r="B136" s="19">
         <v>134</v>
       </c>
@@ -8933,7 +8897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:19">
       <c r="B137" s="19">
         <v>135</v>
       </c>
@@ -8985,7 +8949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:19">
       <c r="B138" s="19">
         <v>136</v>
       </c>
@@ -9031,7 +8995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:19">
       <c r="B139" s="19">
         <v>137</v>
       </c>
@@ -9075,7 +9039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:19">
       <c r="B140" s="19">
         <v>138</v>
       </c>
@@ -9111,7 +9075,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="141" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:19">
       <c r="B141" s="19">
         <v>139</v>
       </c>
@@ -9161,7 +9125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:19">
       <c r="B142" s="19">
         <v>140</v>
       </c>
@@ -9211,7 +9175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:19">
       <c r="B143" s="19">
         <v>141</v>
       </c>
@@ -9253,7 +9217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:19">
       <c r="B144" s="19">
         <v>142</v>
       </c>
@@ -9293,7 +9257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:19">
       <c r="B145" s="19">
         <v>143</v>
       </c>
@@ -9325,7 +9289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:19">
       <c r="B146" s="19">
         <v>144</v>
       </c>
@@ -9363,10 +9327,10 @@
   <autoFilter ref="B2:S146" xr:uid="{31558208-3E12-4C73-A118-879B1114B5BC}"/>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B3:S146">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$G3="Reserved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$G3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9386,47 +9350,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7000E368-C966-4CEE-B05C-6456CAD4E8EE}">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="22.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="22.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23">
       <c r="A1" s="6" t="s">
         <v>532</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23">
       <c r="B2" s="9" t="s">
         <v>168</v>
       </c>
@@ -9468,7 +9432,7 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -9512,7 +9476,7 @@
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23">
       <c r="B4" s="14">
         <v>2</v>
       </c>
@@ -9558,7 +9522,7 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23">
       <c r="B5" s="14">
         <v>3</v>
       </c>
@@ -9602,7 +9566,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" ht="30">
       <c r="B6" s="14">
         <v>4</v>
       </c>
@@ -9642,7 +9606,7 @@
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" ht="30">
       <c r="B7" s="14">
         <v>5</v>
       </c>
@@ -9686,7 +9650,7 @@
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23">
       <c r="B8" s="14">
         <v>6</v>
       </c>
@@ -9724,7 +9688,7 @@
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23">
       <c r="B9" s="14">
         <v>7</v>
       </c>
@@ -9762,7 +9726,7 @@
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23">
       <c r="B10" s="14">
         <v>8</v>
       </c>
@@ -9800,7 +9764,7 @@
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23">
       <c r="B11" s="14">
         <v>9</v>
       </c>
@@ -9838,7 +9802,7 @@
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23">
       <c r="B12" s="14">
         <v>10</v>
       </c>
@@ -9880,7 +9844,7 @@
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23">
       <c r="B13" s="14">
         <v>11</v>
       </c>
@@ -9922,7 +9886,7 @@
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" ht="30">
       <c r="B14" s="14">
         <v>12</v>
       </c>
@@ -9964,7 +9928,7 @@
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23">
       <c r="B15" s="14">
         <v>13</v>
       </c>
@@ -10014,7 +9978,7 @@
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23">
       <c r="B16" s="14">
         <v>14</v>
       </c>
@@ -10062,7 +10026,7 @@
       <c r="V16" s="13"/>
       <c r="W16" s="13"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:23">
       <c r="B17" s="14">
         <v>15</v>
       </c>
@@ -10108,7 +10072,7 @@
       <c r="V17" s="13"/>
       <c r="W17" s="13"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:23">
       <c r="B18" s="14">
         <v>16</v>
       </c>
@@ -10152,7 +10116,7 @@
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:23">
       <c r="B19" s="14">
         <v>17</v>
       </c>
@@ -10208,7 +10172,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:23">
       <c r="B20" s="14">
         <v>18</v>
       </c>
@@ -10260,7 +10224,7 @@
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:23">
       <c r="B21" s="14">
         <v>19</v>
       </c>
@@ -10316,7 +10280,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:23">
       <c r="B22" s="14">
         <v>20</v>
       </c>
@@ -10368,7 +10332,7 @@
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:23">
       <c r="B23" s="14">
         <v>21</v>
       </c>
@@ -10424,7 +10388,7 @@
       </c>
       <c r="W23" s="13"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:23">
       <c r="B24" s="14">
         <v>22</v>
       </c>
@@ -10478,7 +10442,7 @@
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:23">
       <c r="B25" s="14">
         <v>23</v>
       </c>
@@ -10534,7 +10498,7 @@
       <c r="V25" s="13"/>
       <c r="W25" s="13"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:23">
       <c r="B26" s="14">
         <v>24</v>
       </c>
@@ -10590,7 +10554,7 @@
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:23">
       <c r="B27" s="14">
         <v>25</v>
       </c>
@@ -10636,7 +10600,7 @@
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:23">
       <c r="B28" s="14">
         <v>26</v>
       </c>
@@ -10684,7 +10648,7 @@
       </c>
       <c r="W28" s="13"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:23">
       <c r="B29" s="14">
         <v>27</v>
       </c>
@@ -10742,7 +10706,7 @@
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:23">
       <c r="B30" s="14">
         <v>28</v>
       </c>
@@ -10800,7 +10764,7 @@
       <c r="V30" s="13"/>
       <c r="W30" s="13"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:23">
       <c r="B31" s="14">
         <v>29</v>
       </c>
@@ -10850,7 +10814,7 @@
       </c>
       <c r="W31" s="13"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:23">
       <c r="B32" s="14">
         <v>30</v>
       </c>
@@ -10900,7 +10864,7 @@
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:23">
       <c r="B33" s="14">
         <v>31</v>
       </c>
@@ -10948,7 +10912,7 @@
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:23">
       <c r="B34" s="14">
         <v>32</v>
       </c>
@@ -11000,7 +10964,7 @@
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:23">
       <c r="B35" s="14">
         <v>33</v>
       </c>
@@ -11052,7 +11016,7 @@
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:23">
       <c r="B36" s="14">
         <v>34</v>
       </c>
@@ -11104,7 +11068,7 @@
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:23">
       <c r="B37" s="14">
         <v>35</v>
       </c>
@@ -11154,7 +11118,7 @@
       <c r="V37" s="13"/>
       <c r="W37" s="13"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:23">
       <c r="B38" s="14">
         <v>36</v>
       </c>
@@ -11204,7 +11168,7 @@
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:23">
       <c r="B39" s="14">
         <v>37</v>
       </c>
@@ -11256,7 +11220,7 @@
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:23">
       <c r="B40" s="14">
         <v>38</v>
       </c>
@@ -11300,7 +11264,7 @@
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:23">
       <c r="B41" s="14">
         <v>39</v>
       </c>
@@ -11344,7 +11308,7 @@
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:23">
       <c r="B42" s="14">
         <v>40</v>
       </c>
@@ -11386,7 +11350,7 @@
       <c r="V42" s="13"/>
       <c r="W42" s="13"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:23">
       <c r="B43" s="14">
         <v>41</v>
       </c>
@@ -11428,7 +11392,7 @@
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:23">
       <c r="B44" s="14">
         <v>42</v>
       </c>
@@ -11480,7 +11444,7 @@
       <c r="V44" s="13"/>
       <c r="W44" s="13"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:23">
       <c r="B45" s="14">
         <v>43</v>
       </c>
@@ -11530,7 +11494,7 @@
       <c r="V45" s="13"/>
       <c r="W45" s="13"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:23">
       <c r="B46" s="14">
         <v>44</v>
       </c>
@@ -11580,7 +11544,7 @@
       <c r="V46" s="13"/>
       <c r="W46" s="13"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:23">
       <c r="B47" s="14">
         <v>45</v>
       </c>
@@ -11626,7 +11590,7 @@
       <c r="V47" s="13"/>
       <c r="W47" s="13"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:23">
       <c r="B48" s="14">
         <v>46</v>
       </c>
@@ -11670,7 +11634,7 @@
       <c r="V48" s="13"/>
       <c r="W48" s="13"/>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:23">
       <c r="B49" s="14">
         <v>47</v>
       </c>
@@ -11726,7 +11690,7 @@
       <c r="V49" s="13"/>
       <c r="W49" s="13"/>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:23">
       <c r="B50" s="14">
         <v>48</v>
       </c>
@@ -11770,7 +11734,7 @@
       <c r="V50" s="13"/>
       <c r="W50" s="13"/>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:23">
       <c r="B51" s="14">
         <v>49</v>
       </c>
@@ -11816,7 +11780,7 @@
       <c r="V51" s="13"/>
       <c r="W51" s="13"/>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:23">
       <c r="B52" s="14">
         <v>50</v>
       </c>
@@ -11860,7 +11824,7 @@
       <c r="V52" s="13"/>
       <c r="W52" s="13"/>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:23">
       <c r="B53" s="14">
         <v>51</v>
       </c>
@@ -11904,7 +11868,7 @@
       <c r="V53" s="13"/>
       <c r="W53" s="13"/>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:23">
       <c r="B54" s="14">
         <v>52</v>
       </c>
@@ -11948,7 +11912,7 @@
       <c r="V54" s="13"/>
       <c r="W54" s="13"/>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:23">
       <c r="B55" s="14">
         <v>53</v>
       </c>
@@ -11992,7 +11956,7 @@
       <c r="V55" s="13"/>
       <c r="W55" s="13"/>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:23">
       <c r="B56" s="14">
         <v>54</v>
       </c>
@@ -12036,7 +12000,7 @@
       <c r="V56" s="13"/>
       <c r="W56" s="13"/>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:23">
       <c r="B57" s="14">
         <v>55</v>
       </c>
@@ -12080,7 +12044,7 @@
       <c r="V57" s="13"/>
       <c r="W57" s="13"/>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:23">
       <c r="B58" s="14">
         <v>56</v>
       </c>
@@ -12122,7 +12086,7 @@
       <c r="V58" s="13"/>
       <c r="W58" s="13"/>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:23">
       <c r="B59" s="14">
         <v>57</v>
       </c>
@@ -12176,7 +12140,7 @@
       <c r="V59" s="13"/>
       <c r="W59" s="13"/>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:23">
       <c r="B60" s="14">
         <v>58</v>
       </c>
@@ -12230,7 +12194,7 @@
       <c r="V60" s="13"/>
       <c r="W60" s="13"/>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:23">
       <c r="B61" s="14">
         <v>59</v>
       </c>
@@ -12284,7 +12248,7 @@
       <c r="V61" s="13"/>
       <c r="W61" s="13"/>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:23">
       <c r="B62" s="14">
         <v>60</v>
       </c>
@@ -12342,7 +12306,7 @@
       <c r="V62" s="13"/>
       <c r="W62" s="13"/>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:23">
       <c r="B63" s="14">
         <v>61</v>
       </c>
@@ -12398,7 +12362,7 @@
       <c r="V63" s="13"/>
       <c r="W63" s="13"/>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:23">
       <c r="B64" s="14">
         <v>62</v>
       </c>
@@ -12454,7 +12418,7 @@
       <c r="V64" s="13"/>
       <c r="W64" s="13"/>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:23">
       <c r="B65" s="14">
         <v>63</v>
       </c>
@@ -12510,7 +12474,7 @@
       <c r="V65" s="13"/>
       <c r="W65" s="13"/>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:23">
       <c r="B66" s="14">
         <v>64</v>
       </c>
@@ -12558,7 +12522,7 @@
   <autoFilter ref="B2:W2" xr:uid="{7000E368-C966-4CEE-B05C-6456CAD4E8EE}"/>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B3:W66">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12577,12 +12541,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>524</v>
       </c>
@@ -12590,7 +12554,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>523</v>
       </c>
@@ -12598,7 +12562,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>526</v>
       </c>
@@ -12606,32 +12570,32 @@
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3">
       <c r="C5" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3">
       <c r="B11" t="s">
         <v>537</v>
       </c>
